--- a/reports/resnet18_23_no_MMTM/prediction/5/probability_train_5.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/5/probability_train_5.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1640525907278061</v>
+        <v>0.4087261855602264</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8359473943710327</v>
+        <v>0.5912738442420959</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.157213032245636</v>
+        <v>0.4380455315113068</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8427870273590088</v>
+        <v>0.5619544982910156</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2657370865345001</v>
+        <v>0.4301469922065735</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7342629432678223</v>
+        <v>0.5698530077934265</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2874330878257751</v>
+        <v>0.5516904592514038</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7125669121742249</v>
+        <v>0.4483095407485962</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1452204585075378</v>
+        <v>0.1452730149030685</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8547794818878174</v>
+        <v>0.854727029800415</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08977546542882919</v>
+        <v>0.04571865126490593</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9102245569229126</v>
+        <v>0.9542813301086426</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1152281612157822</v>
+        <v>0.2074068188667297</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8847718238830566</v>
+        <v>0.792593240737915</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2870261669158936</v>
+        <v>0.687375545501709</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7129738330841064</v>
+        <v>0.3126244246959686</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2158963531255722</v>
+        <v>0.5080488324165344</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7841036319732666</v>
+        <v>0.4919511079788208</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1412050276994705</v>
+        <v>0.4033737778663635</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8587949275970459</v>
+        <v>0.5966262817382812</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1470321416854858</v>
+        <v>0.457903265953064</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8529678583145142</v>
+        <v>0.542096734046936</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1208703964948654</v>
+        <v>0.1549217104911804</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8791295289993286</v>
+        <v>0.8450782895088196</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1272878348827362</v>
+        <v>0.05327554792165756</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8727121353149414</v>
+        <v>0.9467244148254395</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.09974603354930878</v>
+        <v>0.1204377636313438</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9002540111541748</v>
+        <v>0.8795622587203979</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1849112510681152</v>
+        <v>0.3554715514183044</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8150887489318848</v>
+        <v>0.6445285081863403</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1442179530858994</v>
+        <v>0.2609300911426544</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8557820320129395</v>
+        <v>0.7390698790550232</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.04852987080812454</v>
+        <v>0.02466444112360477</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9514701962471008</v>
+        <v>0.9753355979919434</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4972735047340393</v>
+        <v>0.8223991394042969</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5027265548706055</v>
+        <v>0.1776008903980255</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.112722709774971</v>
+        <v>0.1810847818851471</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8872772455215454</v>
+        <v>0.8189152479171753</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.112436518073082</v>
+        <v>0.1183653026819229</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8875634670257568</v>
+        <v>0.8816347122192383</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.07632206380367279</v>
+        <v>0.04785421118140221</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9236779808998108</v>
+        <v>0.9521458148956299</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1078158468008041</v>
+        <v>0.09545930474996567</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8921841382980347</v>
+        <v>0.9045406579971313</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.119343027472496</v>
+        <v>0.09769167006015778</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8806569576263428</v>
+        <v>0.9023083448410034</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1993950009346008</v>
+        <v>0.336409866809845</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8006049394607544</v>
+        <v>0.663590133190155</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.08155175298452377</v>
+        <v>0.07513433694839478</v>
       </c>
       <c r="C26" t="n">
-        <v>0.918448269367218</v>
+        <v>0.9248656630516052</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2356979548931122</v>
+        <v>0.6713839173316956</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7643020153045654</v>
+        <v>0.3286161422729492</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1246774047613144</v>
+        <v>0.09713847935199738</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8753225803375244</v>
+        <v>0.9028615951538086</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.09284675121307373</v>
+        <v>0.03162908926606178</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9071532487869263</v>
+        <v>0.9683709144592285</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1518388092517853</v>
+        <v>0.2062614262104034</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8481611013412476</v>
+        <v>0.7937386035919189</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -921,10 +921,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0977725014090538</v>
+        <v>0.06639249622821808</v>
       </c>
       <c r="C31" t="n">
-        <v>0.902227520942688</v>
+        <v>0.9336074590682983</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1475927233695984</v>
+        <v>0.4121085703372955</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8524073362350464</v>
+        <v>0.5878913998603821</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1057861000299454</v>
+        <v>0.04661456495523453</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8942139148712158</v>
+        <v>0.9533854126930237</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1635274589061737</v>
+        <v>0.2528271675109863</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8364725112915039</v>
+        <v>0.7471728324890137</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1057855933904648</v>
+        <v>0.1644591987133026</v>
       </c>
       <c r="C35" t="n">
-        <v>0.894214391708374</v>
+        <v>0.835540771484375</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1116772219538689</v>
+        <v>0.1535054743289948</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8883228302001953</v>
+        <v>0.8464945554733276</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1017,10 +1017,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1777165532112122</v>
+        <v>0.3167108595371246</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8222834467887878</v>
+        <v>0.683289110660553</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1033,10 +1033,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4931829869747162</v>
+        <v>0.8460609912872314</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5068170428276062</v>
+        <v>0.1539390087127686</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1049,10 +1049,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2028257250785828</v>
+        <v>0.5805642604827881</v>
       </c>
       <c r="C39" t="n">
-        <v>0.797174334526062</v>
+        <v>0.4194357395172119</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.5457925796508789</v>
+        <v>0.884904146194458</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4542074203491211</v>
+        <v>0.1150957942008972</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1439979672431946</v>
+        <v>0.1858916878700256</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8560020327568054</v>
+        <v>0.8141082525253296</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1275311261415482</v>
+        <v>0.07088373601436615</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8724689483642578</v>
+        <v>0.9291162490844727</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1590986251831055</v>
+        <v>0.2163390070199966</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8409013748168945</v>
+        <v>0.7836610078811646</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1477920562028885</v>
+        <v>0.2184779644012451</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8522078990936279</v>
+        <v>0.7815220355987549</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1058982685208321</v>
+        <v>0.05997301638126373</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8941016793251038</v>
+        <v>0.9400269985198975</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.08550630509853363</v>
+        <v>0.08101413398981094</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9144936800003052</v>
+        <v>0.9189858436584473</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -1177,10 +1177,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1773124039173126</v>
+        <v>0.2852094769477844</v>
       </c>
       <c r="C47" t="n">
-        <v>0.822687566280365</v>
+        <v>0.7147905230522156</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.3476722240447998</v>
+        <v>0.8148996829986572</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6523277759552002</v>
+        <v>0.1851003766059875</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.3513277769088745</v>
+        <v>0.7263717651367188</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6486722230911255</v>
+        <v>0.2736282348632812</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1225,10 +1225,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.5374070405960083</v>
+        <v>0.7899602651596069</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4625929594039917</v>
+        <v>0.2100396752357483</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.086705282330513</v>
+        <v>0.1317227184772491</v>
       </c>
       <c r="C51" t="n">
-        <v>0.913294792175293</v>
+        <v>0.8682773113250732</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -1257,10 +1257,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2943138480186462</v>
+        <v>0.5904459357261658</v>
       </c>
       <c r="C52" t="n">
-        <v>0.705686092376709</v>
+        <v>0.4095540642738342</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -1273,10 +1273,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1083053052425385</v>
+        <v>0.1826885342597961</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8916947245597839</v>
+        <v>0.8173115253448486</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.06775977462530136</v>
+        <v>0.02498108707368374</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9322401881217957</v>
+        <v>0.9750189185142517</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.4524957537651062</v>
+        <v>0.7633464336395264</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5475043058395386</v>
+        <v>0.236653596162796</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1321,10 +1321,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1293984800577164</v>
+        <v>0.2224039137363434</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8706015348434448</v>
+        <v>0.777596116065979</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.3151690661907196</v>
+        <v>0.7341197729110718</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6848309636116028</v>
+        <v>0.2658801972866058</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.4647296667098999</v>
+        <v>0.8512605428695679</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5352703332901001</v>
+        <v>0.1487395167350769</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.09048096835613251</v>
+        <v>0.08232766389846802</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9095190167427063</v>
+        <v>0.917672336101532</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -1385,10 +1385,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1278752684593201</v>
+        <v>0.2593768239021301</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8721247315406799</v>
+        <v>0.7406232357025146</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
@@ -1401,10 +1401,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1764683276414871</v>
+        <v>0.4095760583877563</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8235316872596741</v>
+        <v>0.5904239416122437</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1110710203647614</v>
+        <v>0.09176289290189743</v>
       </c>
       <c r="C62" t="n">
-        <v>0.888929009437561</v>
+        <v>0.908237099647522</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -1433,10 +1433,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.07099738717079163</v>
+        <v>0.03484005481004715</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9290026426315308</v>
+        <v>0.9651599526405334</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -1449,10 +1449,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.09233794361352921</v>
+        <v>0.1044598743319511</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9076620936393738</v>
+        <v>0.8955401182174683</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
@@ -1465,10 +1465,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2311175465583801</v>
+        <v>0.521712601184845</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7688824534416199</v>
+        <v>0.4782874584197998</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1393233090639114</v>
+        <v>0.1594850271940231</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8606767654418945</v>
+        <v>0.8405149579048157</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1599845588207245</v>
+        <v>0.3532526195049286</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8400154709815979</v>
+        <v>0.646747350692749</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -1513,10 +1513,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.07489617168903351</v>
+        <v>0.03731082379817963</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9251037836074829</v>
+        <v>0.9626891613006592</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.196819007396698</v>
+        <v>0.6278775334358215</v>
       </c>
       <c r="C69" t="n">
-        <v>0.803180992603302</v>
+        <v>0.3721224665641785</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
@@ -1545,10 +1545,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1260892301797867</v>
+        <v>0.1187417209148407</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8739107847213745</v>
+        <v>0.8812583088874817</v>
       </c>
       <c r="D70" t="n">
         <v>1</v>
@@ -1561,10 +1561,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1320790797472</v>
+        <v>0.2153999209403992</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8679209351539612</v>
+        <v>0.7846000790596008</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -1577,10 +1577,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1628852635622025</v>
+        <v>0.3468717336654663</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8371148109436035</v>
+        <v>0.6531282663345337</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1619727909564972</v>
+        <v>0.3187658786773682</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8380272388458252</v>
+        <v>0.6812341213226318</v>
       </c>
       <c r="D73" t="n">
         <v>1</v>
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1158415898680687</v>
+        <v>0.1202280968427658</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8841584324836731</v>
+        <v>0.8797719478607178</v>
       </c>
       <c r="D74" t="n">
         <v>1</v>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1324503272771835</v>
+        <v>0.1574459373950958</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8675496578216553</v>
+        <v>0.8425540328025818</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
@@ -1641,10 +1641,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.4090684652328491</v>
+        <v>0.7971355319023132</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5909315347671509</v>
+        <v>0.202864482998848</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1218334808945656</v>
+        <v>0.2547199726104736</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8781665563583374</v>
+        <v>0.7452800273895264</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1255250722169876</v>
+        <v>0.2163022756576538</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8744748830795288</v>
+        <v>0.783697783946991</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1594923436641693</v>
+        <v>0.294502466917038</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8405076861381531</v>
+        <v>0.7054975032806396</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1205795258283615</v>
+        <v>0.270831823348999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8794203996658325</v>
+        <v>0.729168176651001</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1644236445426941</v>
+        <v>0.3528645634651184</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8355764150619507</v>
+        <v>0.6471354961395264</v>
       </c>
       <c r="D81" t="n">
         <v>1</v>
@@ -1737,10 +1737,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.092771016061306</v>
+        <v>0.07543313503265381</v>
       </c>
       <c r="C82" t="n">
-        <v>0.907228946685791</v>
+        <v>0.9245668649673462</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.4013582468032837</v>
+        <v>0.8491323590278625</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5986417531967163</v>
+        <v>0.1508676111698151</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -1769,10 +1769,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.04423258826136589</v>
+        <v>0.01656670495867729</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9557673931121826</v>
+        <v>0.9834332466125488</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -1785,10 +1785,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1015281602740288</v>
+        <v>0.2065789848566055</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8984718322753906</v>
+        <v>0.7934210300445557</v>
       </c>
       <c r="D85" t="n">
         <v>1</v>
@@ -1801,10 +1801,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1120652630925179</v>
+        <v>0.1736660897731781</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8879347443580627</v>
+        <v>0.8263338804244995</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
@@ -1817,10 +1817,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.3543834388256073</v>
+        <v>0.5958478450775146</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6456165313720703</v>
+        <v>0.404152125120163</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.2178917229175568</v>
+        <v>0.3710982799530029</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7821083068847656</v>
+        <v>0.6289017796516418</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.1913934946060181</v>
+        <v>0.3074457347393036</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8086065053939819</v>
+        <v>0.692554235458374</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -1865,10 +1865,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.0691070482134819</v>
+        <v>0.05332376062870026</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9308929443359375</v>
+        <v>0.9466762542724609</v>
       </c>
       <c r="D90" t="n">
         <v>1</v>
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.1929328143596649</v>
+        <v>0.4624223113059998</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8070672154426575</v>
+        <v>0.5375776886940002</v>
       </c>
       <c r="D91" t="n">
         <v>1</v>
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.09403200447559357</v>
+        <v>0.0872185081243515</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9059679508209229</v>
+        <v>0.9127814769744873</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.07359394431114197</v>
+        <v>0.01893898099660873</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9264060854911804</v>
+        <v>0.9810609817504883</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
@@ -1929,10 +1929,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.05682383477687836</v>
+        <v>0.01996256038546562</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9431761503219604</v>
+        <v>0.9800374507904053</v>
       </c>
       <c r="D94" t="n">
         <v>1</v>
@@ -1945,10 +1945,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.1049959287047386</v>
+        <v>0.05743133276700974</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8950040936470032</v>
+        <v>0.9425686597824097</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.2048508524894714</v>
+        <v>0.6050535440444946</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7951492071151733</v>
+        <v>0.3949463963508606</v>
       </c>
       <c r="D96" t="n">
         <v>1</v>
@@ -1977,10 +1977,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.08633429557085037</v>
+        <v>0.03604459762573242</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9136657118797302</v>
+        <v>0.9639554023742676</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -1993,10 +1993,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.1144443824887276</v>
+        <v>0.1483495831489563</v>
       </c>
       <c r="C98" t="n">
-        <v>0.885555624961853</v>
+        <v>0.8516503572463989</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.09437275677919388</v>
+        <v>0.1120984479784966</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9056272506713867</v>
+        <v>0.8879015445709229</v>
       </c>
       <c r="D99" t="n">
         <v>1</v>
@@ -2025,10 +2025,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.2638239860534668</v>
+        <v>0.2974374890327454</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7361760139465332</v>
+        <v>0.7025625109672546</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -2041,10 +2041,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.09172049164772034</v>
+        <v>0.1054411679506302</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9082795381546021</v>
+        <v>0.8945587873458862</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
@@ -2057,10 +2057,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.1556064784526825</v>
+        <v>0.3292272090911865</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8443935513496399</v>
+        <v>0.6707727909088135</v>
       </c>
       <c r="D102" t="n">
         <v>1</v>
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.1606470197439194</v>
+        <v>0.37974813580513</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8393529653549194</v>
+        <v>0.6202518343925476</v>
       </c>
       <c r="D103" t="n">
         <v>1</v>
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.1019803807139397</v>
+        <v>0.09177911281585693</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8980196118354797</v>
+        <v>0.9082208871841431</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -2105,10 +2105,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.05293415114283562</v>
+        <v>0.01447576191276312</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9470658302307129</v>
+        <v>0.9855242371559143</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -2121,10 +2121,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.2901626527309418</v>
+        <v>0.7611650824546814</v>
       </c>
       <c r="C106" t="n">
-        <v>0.7098373770713806</v>
+        <v>0.238834947347641</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.1066433191299438</v>
+        <v>0.06300022453069687</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8933566212654114</v>
+        <v>0.9369997978210449</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
@@ -2153,10 +2153,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.09330438077449799</v>
+        <v>0.1835766583681107</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9066956043243408</v>
+        <v>0.8164233565330505</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.1085826978087425</v>
+        <v>0.2134162485599518</v>
       </c>
       <c r="C109" t="n">
-        <v>0.891417384147644</v>
+        <v>0.7865837812423706</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -2185,10 +2185,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.2736763656139374</v>
+        <v>0.5999510288238525</v>
       </c>
       <c r="C110" t="n">
-        <v>0.726323664188385</v>
+        <v>0.4000489711761475</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -2201,10 +2201,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.5082582235336304</v>
+        <v>0.8510596752166748</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4917417764663696</v>
+        <v>0.1489403247833252</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -2217,10 +2217,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.5409998893737793</v>
+        <v>0.8856247663497925</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4590001106262207</v>
+        <v>0.1143753081560135</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -2233,10 +2233,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.120590940117836</v>
+        <v>0.2322148382663727</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8794090747833252</v>
+        <v>0.7677851319313049</v>
       </c>
       <c r="D113" t="n">
         <v>1</v>
@@ -2249,10 +2249,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.1697356104850769</v>
+        <v>0.2945300340652466</v>
       </c>
       <c r="C114" t="n">
-        <v>0.8302643299102783</v>
+        <v>0.7054699659347534</v>
       </c>
       <c r="D114" t="n">
         <v>1</v>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.07436928153038025</v>
+        <v>0.04686128720641136</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9256307482719421</v>
+        <v>0.9531387090682983</v>
       </c>
       <c r="D115" t="n">
         <v>1</v>
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.2233823239803314</v>
+        <v>0.3614764213562012</v>
       </c>
       <c r="C116" t="n">
-        <v>0.7766176462173462</v>
+        <v>0.6385235786437988</v>
       </c>
       <c r="D116" t="n">
         <v>1</v>
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.09207873046398163</v>
+        <v>0.0530826672911644</v>
       </c>
       <c r="C117" t="n">
-        <v>0.907921314239502</v>
+        <v>0.9469173550605774</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.08762967586517334</v>
+        <v>0.09330186247825623</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9123703241348267</v>
+        <v>0.9066981077194214</v>
       </c>
       <c r="D118" t="n">
         <v>1</v>
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.4648581147193909</v>
+        <v>0.8371415138244629</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5351418256759644</v>
+        <v>0.1628584563732147</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -2345,10 +2345,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.09735725075006485</v>
+        <v>0.0485088974237442</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9026427268981934</v>
+        <v>0.951491117477417</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
@@ -2361,10 +2361,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.1107843816280365</v>
+        <v>0.1031284481287003</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8892156481742859</v>
+        <v>0.8968715667724609</v>
       </c>
       <c r="D121" t="n">
         <v>1</v>
@@ -2377,10 +2377,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.1217385530471802</v>
+        <v>0.1584946811199188</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8782614469528198</v>
+        <v>0.8415052890777588</v>
       </c>
       <c r="D122" t="n">
         <v>1</v>
@@ -2393,10 +2393,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.1300335079431534</v>
+        <v>0.1485866010189056</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8699665069580078</v>
+        <v>0.851413369178772</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -2409,10 +2409,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.1801342815160751</v>
+        <v>0.4581831395626068</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8198657035827637</v>
+        <v>0.5418168902397156</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.0971120297908783</v>
+        <v>0.04300401732325554</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9028879404067993</v>
+        <v>0.956995964050293</v>
       </c>
       <c r="D125" t="n">
         <v>1</v>
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.1029072478413582</v>
+        <v>0.1415380388498306</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8970927596092224</v>
+        <v>0.8584619760513306</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.626497745513916</v>
+        <v>0.9075220823287964</v>
       </c>
       <c r="C127" t="n">
-        <v>0.373502254486084</v>
+        <v>0.09247793257236481</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.1804022789001465</v>
+        <v>0.2966291904449463</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8195977210998535</v>
+        <v>0.7033708095550537</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.559956431388855</v>
+        <v>0.8956289291381836</v>
       </c>
       <c r="C129" t="n">
-        <v>0.440043568611145</v>
+        <v>0.1043711155653</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -2505,10 +2505,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.1396844983100891</v>
+        <v>0.1930385231971741</v>
       </c>
       <c r="C130" t="n">
-        <v>0.8603155016899109</v>
+        <v>0.8069614171981812</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
@@ -2521,10 +2521,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.3076042532920837</v>
+        <v>0.7342288494110107</v>
       </c>
       <c r="C131" t="n">
-        <v>0.6923957467079163</v>
+        <v>0.2657711207866669</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -2537,10 +2537,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.6097710132598877</v>
+        <v>0.8812661170959473</v>
       </c>
       <c r="C132" t="n">
-        <v>0.3902290463447571</v>
+        <v>0.1187338605523109</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
@@ -2553,10 +2553,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.1907744258642197</v>
+        <v>0.4098718166351318</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8092255592346191</v>
+        <v>0.5901281833648682</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.1882827281951904</v>
+        <v>0.4586862325668335</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8117172718048096</v>
+        <v>0.5413137674331665</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -2585,10 +2585,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.1623558104038239</v>
+        <v>0.1808373928070068</v>
       </c>
       <c r="C135" t="n">
-        <v>0.8376441597938538</v>
+        <v>0.8191626071929932</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -2601,10 +2601,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.1539310961961746</v>
+        <v>0.1800937652587891</v>
       </c>
       <c r="C136" t="n">
-        <v>0.8460688591003418</v>
+        <v>0.8199062347412109</v>
       </c>
       <c r="D136" t="n">
         <v>1</v>
@@ -2617,10 +2617,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.2080861032009125</v>
+        <v>0.5639259815216064</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7919139266014099</v>
+        <v>0.4360740184783936</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.1599088311195374</v>
+        <v>0.3490614891052246</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8400911092758179</v>
+        <v>0.6509385108947754</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -2649,10 +2649,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.1084321439266205</v>
+        <v>0.1575163006782532</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8915678262710571</v>
+        <v>0.8424837589263916</v>
       </c>
       <c r="D139" t="n">
         <v>1</v>
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.219912201166153</v>
+        <v>0.3483007550239563</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7800878286361694</v>
+        <v>0.6516991853713989</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.313138335943222</v>
+        <v>0.6411023139953613</v>
       </c>
       <c r="C141" t="n">
-        <v>0.6868616342544556</v>
+        <v>0.3588977456092834</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -2697,10 +2697,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.1503175497055054</v>
+        <v>0.1428569257259369</v>
       </c>
       <c r="C142" t="n">
-        <v>0.8496824502944946</v>
+        <v>0.8571430444717407</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.1248171404004097</v>
+        <v>0.213557168841362</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8751828670501709</v>
+        <v>0.7864428162574768</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -2729,10 +2729,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.1934405267238617</v>
+        <v>0.5921172499656677</v>
       </c>
       <c r="C144" t="n">
-        <v>0.8065595030784607</v>
+        <v>0.4078827500343323</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.5878864526748657</v>
+        <v>0.8654272556304932</v>
       </c>
       <c r="C145" t="n">
-        <v>0.4121134877204895</v>
+        <v>0.1345727443695068</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.1215433180332184</v>
+        <v>0.08932587504386902</v>
       </c>
       <c r="C146" t="n">
-        <v>0.8784566521644592</v>
+        <v>0.9106740951538086</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -2777,10 +2777,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.09879004210233688</v>
+        <v>0.1522161960601807</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9012099504470825</v>
+        <v>0.8477838039398193</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
@@ -2793,10 +2793,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.08413352817296982</v>
+        <v>0.02801689133048058</v>
       </c>
       <c r="C148" t="n">
-        <v>0.915866494178772</v>
+        <v>0.9719830751419067</v>
       </c>
       <c r="D148" t="n">
         <v>1</v>
@@ -2809,10 +2809,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.3645796775817871</v>
+        <v>0.7754824161529541</v>
       </c>
       <c r="C149" t="n">
-        <v>0.6354203224182129</v>
+        <v>0.2245175540447235</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.6186444163322449</v>
+        <v>0.8965787887573242</v>
       </c>
       <c r="C150" t="n">
-        <v>0.3813555836677551</v>
+        <v>0.103421226143837</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
@@ -2841,10 +2841,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.6057038307189941</v>
+        <v>0.8646931648254395</v>
       </c>
       <c r="C151" t="n">
-        <v>0.3942961394786835</v>
+        <v>0.1353068053722382</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.1635797619819641</v>
+        <v>0.1877332627773285</v>
       </c>
       <c r="C152" t="n">
-        <v>0.8364202976226807</v>
+        <v>0.8122667074203491</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
@@ -2873,10 +2873,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.2696555852890015</v>
+        <v>0.740523099899292</v>
       </c>
       <c r="C153" t="n">
-        <v>0.7303444147109985</v>
+        <v>0.2594768702983856</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.246837317943573</v>
+        <v>0.4395151734352112</v>
       </c>
       <c r="C154" t="n">
-        <v>0.753162682056427</v>
+        <v>0.5604848265647888</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
@@ -2905,10 +2905,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.04590090736746788</v>
+        <v>0.00670205894857645</v>
       </c>
       <c r="C155" t="n">
-        <v>0.9540990591049194</v>
+        <v>0.9932979345321655</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -2921,10 +2921,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.06773898005485535</v>
+        <v>0.03961574286222458</v>
       </c>
       <c r="C156" t="n">
-        <v>0.9322609901428223</v>
+        <v>0.9603842496871948</v>
       </c>
       <c r="D156" t="n">
         <v>1</v>
@@ -2937,10 +2937,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.3106525242328644</v>
+        <v>0.4644401669502258</v>
       </c>
       <c r="C157" t="n">
-        <v>0.689347505569458</v>
+        <v>0.5355597734451294</v>
       </c>
       <c r="D157" t="n">
         <v>1</v>
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.09068018198013306</v>
+        <v>0.0932503268122673</v>
       </c>
       <c r="C158" t="n">
-        <v>0.9093198180198669</v>
+        <v>0.9067496061325073</v>
       </c>
       <c r="D158" t="n">
         <v>1</v>
@@ -2969,10 +2969,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.2591168284416199</v>
+        <v>0.6189464926719666</v>
       </c>
       <c r="C159" t="n">
-        <v>0.7408831715583801</v>
+        <v>0.3810534775257111</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.2034612149000168</v>
+        <v>0.5278900265693665</v>
       </c>
       <c r="C160" t="n">
-        <v>0.796538770198822</v>
+        <v>0.4721099734306335</v>
       </c>
       <c r="D160" t="n">
         <v>1</v>
@@ -3001,10 +3001,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.3308403491973877</v>
+        <v>0.6091950535774231</v>
       </c>
       <c r="C161" t="n">
-        <v>0.6691596508026123</v>
+        <v>0.3908049464225769</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -3017,10 +3017,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.2253633141517639</v>
+        <v>0.4314886331558228</v>
       </c>
       <c r="C162" t="n">
-        <v>0.7746366858482361</v>
+        <v>0.5685113668441772</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -3033,10 +3033,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.5136318802833557</v>
+        <v>0.8844147920608521</v>
       </c>
       <c r="C163" t="n">
-        <v>0.4863681197166443</v>
+        <v>0.1155852377414703</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.1361411511898041</v>
+        <v>0.3250448107719421</v>
       </c>
       <c r="C164" t="n">
-        <v>0.8638588190078735</v>
+        <v>0.6749551892280579</v>
       </c>
       <c r="D164" t="n">
         <v>1</v>
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.1112356632947922</v>
+        <v>0.107752650976181</v>
       </c>
       <c r="C165" t="n">
-        <v>0.8887643218040466</v>
+        <v>0.8922473192214966</v>
       </c>
       <c r="D165" t="n">
         <v>1</v>
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.09100143611431122</v>
+        <v>0.1129101142287254</v>
       </c>
       <c r="C166" t="n">
-        <v>0.9089986085891724</v>
+        <v>0.8870899081230164</v>
       </c>
       <c r="D166" t="n">
         <v>1</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.08745311200618744</v>
+        <v>0.09069623053073883</v>
       </c>
       <c r="C167" t="n">
-        <v>0.9125468730926514</v>
+        <v>0.9093037843704224</v>
       </c>
       <c r="D167" t="n">
         <v>1</v>
@@ -3113,10 +3113,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.1574645936489105</v>
+        <v>0.4336888194084167</v>
       </c>
       <c r="C168" t="n">
-        <v>0.8425353765487671</v>
+        <v>0.566311240196228</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -3129,10 +3129,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.168666660785675</v>
+        <v>0.2911956310272217</v>
       </c>
       <c r="C169" t="n">
-        <v>0.831333339214325</v>
+        <v>0.7088043689727783</v>
       </c>
       <c r="D169" t="n">
         <v>1</v>
@@ -3145,10 +3145,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.5645316243171692</v>
+        <v>0.8370931148529053</v>
       </c>
       <c r="C170" t="n">
-        <v>0.4354684054851532</v>
+        <v>0.1629069447517395</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.6923973560333252</v>
+        <v>0.8789230585098267</v>
       </c>
       <c r="C171" t="n">
-        <v>0.3076026737689972</v>
+        <v>0.1210770010948181</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -3177,10 +3177,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.162453293800354</v>
+        <v>0.2669220864772797</v>
       </c>
       <c r="C172" t="n">
-        <v>0.837546706199646</v>
+        <v>0.7330779433250427</v>
       </c>
       <c r="D172" t="n">
         <v>1</v>
